--- a/Credentials.xlsx
+++ b/Credentials.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trict\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trict\IdeaProjects\Cydeo_Cucumber_Junit_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FD5FC-3B96-4D3A-B3A4-985243396306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBC8B26-A490-4A0A-8429-93452BE49E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26655" yWindow="945" windowWidth="23970" windowHeight="15435" xr2:uid="{A2B73447-E8D8-4E66-AB42-5774C7A37088}"/>
+    <workbookView xWindow="1005" yWindow="1230" windowWidth="23970" windowHeight="15435" xr2:uid="{A2B73447-E8D8-4E66-AB42-5774C7A37088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -68,9 +68,6 @@
     <t>user5</t>
   </si>
   <si>
-    <t>UserUser</t>
-  </si>
-  <si>
     <t>Lana</t>
   </si>
   <si>
@@ -102,12 +99,22 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>UserUser123</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,120 +460,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A94FA5-5449-4EF4-AC70-EF0AA67D73AC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125"/>
+    <col min="3" max="3" customWidth="true" width="11.5703125"/>
+    <col min="4" max="4" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" t="s" s="0">
         <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s" s="0">
         <v>21</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" t="s" s="0">
         <v>21</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" t="s" s="0">
         <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
